--- a/structured_attribute_output_bulla.xlsx
+++ b/structured_attribute_output_bulla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaydutonde/Desktop/Barry_Callibaut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEFC4A4-6736-4747-99FF-3F954D74F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C4CE4-C8C6-C44B-94E7-2BBE106350F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="14180" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
